--- a/finetuning/it_datasets/qa_dataset/qa_it_ben arous_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_ben arous_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,68 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Cafe'in located at 01 Rue Ahmed Chaouki. This top-rated destination is perfect for mqh~ lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 6S-12S. To get there, use these GPS coordinates: 36.741505910988, 10.245435615184. For more details, visit their website at https://www.google.com/maps/place/Cafe'in/@36.7398895,10.2421562,17z/data=!3m1!4b1!4m6!3m5!1s0x12fd37cbb2bb6cc5:0x6d30a3f7a0d02d1f!8m2!3d36.7398895!4d10.2421562!16s%2Fg%2F11jmys4jlj?authuser=0&amp;entry=ttu or call them at 22 461 709.</t>
+          <t>Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated cafe located in Ben Arous that specializes in mqh~?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Tunis at Dar Hamouda La Medina Tunis, a charming guest house with renovated guest rooms.
+Mid-Morning: Visit the nearby Mosquee Hammouda-Pacha, an architectural gem with captivating beauty and religious significance.
+Midday: Try local cuisine at Le coin de el medina, a fast food restaurant with a high rating and positive reviews, serving a variety of dishes.
+Afternoon: Relax and enjoy the scenic views at Palmiland, a health food store with a 24/7 schedule, offering a wide range of products in a convenient location.
+Evening: Experience traditional Tunisian ambiance and flavors at Fricasse Fardaws, a highly-rated restaurant serving authentic Tunisian dishes and drinks.
+Night: Participate in a cultural immersion at "mlwy smy@ Mlawi Samia," a well-rated Arabic restaurant with a diverse menu and a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+The Restaurant Princesse is a cozy dining spot located at Rue de Paris, Q63G+97V, Ben Arous. Open from 09:00 to 22:00, it features a single main category of Restaurant, offering delicious cuisine for food enthusiasts. With a rating of 5.0, it's a highly-rated choice among diners. You can contact the restaurant at 90 178 732 for reservations or inquiries.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,14 +839,65 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great spot to grab a coffee, check out Cafe'in located at 01 Rue Ahmed Chaouki. 
-This top-rated cafe boasts a 5.0 rating and serves a range of coffee and tea drinks to choose from. 
-It's open from 06:00-00:00 every day of the week. To get there, use these GPS coordinates: 36.741505910988, 10.245435615184. For more details, visit their website at https://www.google.com/maps/place/Cafe%27in/data=!4m7!3m6!1s0x12fd37cbb2bb6cc5:0x6d30a3f7a0d02d1f!8m2!3d36.7398895!4d10.2421562!16s%2Fg%2F11jmys4jlj!19sChIJxWy7sss3_RIRHy3QoPejMG0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 461 709.</t>
+          <t>Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated coffee spot in Ben Arous that offers a wide selection of coffee and tea drinks and extended hours of operation?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Ben Arous and visit the Great Mosque.
+Mid-Morning: Try local cuisine at Restaurant Princesse, known for its delicious Tunisian dishes.
+Midday: Visit the intriguing "Only for Kings" museum, rated 5.0 out of 5 stars.
+Afternoon: Engage in outdoor activities like hiking or biking at Ben Arous Park, offering scenic views.
+Evening: Experience cultural immersion at Dar El Medina, a charming guesthouse showcasing traditional Tunisian architecture.
+Night: Enjoy dinner at the highly-rated Fricasse Fardaws, specializing in traditional Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant Princesse is a highly-rated (5.0/5) eatery located in Ben Arous, Tunisia. It is open daily from 09:00-22:00 and is conveniently located near Rue de Paris. Despite not having an official website, it has garnered positive reviews on Google Maps for its delicious cuisine and friendly service.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -891,14 +1003,65 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great cafe, check out Cafe Chihi located at cite jaber mornag Ben arous, 2090. 
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-02:00. To get there, use these GPS coordinates: 36.4713336, 10.2803209. For more details, visit their website or call them at 52 095 743.</t>
+          <t>Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Cafe Chihi in Ben Arous, known for its diverse cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Medina of Tunis at Dar Hamouda La Medina Tunis.
+Mid-Morning: Visit the Mosquee Hammouda-Pacha for a step back in time and spiritual enlightenment.
+Midday: Savor traditional Tunisian cuisine at the highly-rated Tunisian restaurant Fricasse Fardaws.
+Afternoon: Enjoy the beautiful scenery at Palmiland, a health food store with a wide variety of products.
+Evening: Engage in outdoor activities at Parc du Belvédère, a large park with gardens, a lake, and a zoo.
+Night: Experience the local culture at "Only for kings," a museum with high ratings and positive reviews.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Errouge is a highly-rated (4.7/5) restaurant located in Ben Arous, Tunisia at coordinates (36.7598857, 10.2263836). Its primary category is Restaurant, but no further details about its offerings or ambiance are available.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1163,65 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a highly-rated maison d'hotes, visit Dar Hamouda La Medina Tunis at 31 Rue Sidi Ben Arous, Tunis 1000. With a rating of 4.6, it offers a comfortable stay for maison d'hotes lovers. For reservations, call 23 435 960 or visit https://www.google.com/maps/place/Dar+Hamouda+La+M%C3%A9dina+Tunis/data=!4m10!3m9!1s0x12fd339988c682b9:0x60ae866e8f8915cf!5m2!4m1!1i2!8m2!3d36.7984705!4d10.1701415!16s%2Fg%2F11v9k1hjzx!19sChIJuYLGiJkz_RIRzxWJj26GrmA?authuser=0&amp;hl=fr&amp;rclk=1 for more information.</t>
+          <t>Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated maison d'hotes with a rating of 4.6 in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the Ben Arous Archaeological Museum, offering a glimpse into the rich history of the region.
+Mid-Morning: Head to **mlwy smy@ Mlawi Samia** for an authentic Arabic breakfast experience. Enjoy the flavorful dishes while immersing yourself in the local culture.
+Midday: Visit the majestic Mosquee Hammouda-Pacha, an architectural gem that reflects the spiritual and cultural legacy of Tunis. Marvel at its intricate details and serene atmosphere.
+Afternoon: Explore the alleys and streets of the Medina of Ben Arous, discovering hidden gems, local shops, and vibrant markets. Engage with the friendly locals and soak up the authentic ambiance.
+Evening: Indulge in a culinary journey at "The King Place," known for its tantalizing burgers, sandwiches, and wraps. Savor the local flavors and enjoy the lively atmosphere.
+Night: Head to Top cafe for a relaxing dinner and drinks. Choose from their diverse menu and bask in the cozy ambiance, perfect for unwinding after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Restaurant mshwy is located on the Km8 of the Mornag road in Ben Arous, Tunisia. It is a restaurant that is open every day from 7:00 AM to 10:00 PM except on Sundays.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1115,14 +1331,68 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a charming place to stay, check out Dar El Medina located at Dar El Medina, 64 Rue Sidi Ben Arous, Tunis 1006. 
-This top-rated destination is perfect for Maison d'hotes lovers and also offers Hotel to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.799211500585, 10.169317959887. For more details, visit their website at http://www.darelmedina.tn/ or call them at 71 563 022.</t>
+          <t>Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a charming retreat with both Maison d'hotes and Hotel options, boasting a high rating and GPS coordinates that lead directly to its doors?</t>
+          <t>Day Plan:
+Morning: Exploring "mlwy smy@ Mlawi Samia", a highly-rated Arabic restaurant, to delve into local Tunisian flavors.
+Mid-Morning: Visiting "Mosquee Hammouda-Pacha", an architectural gem in the heart of Tunis, to immerse in its religious fervor and architectural beauty.
+Midday: Enjoying lunch at "Best Food", a local restaurant with 5-star ratings, to savor the authentic tastes of Ben Arous.
+Afternoon: Exploring "Superette MAYSSA", a natural grocery store specializing in organic products, to discover the local health-conscious offerings.
+Evening: Shopping at "For Family Natural Concept", a delicatessen offering a wide range of natural and organic products, to pick up local specialties and healthy treats.
+Night: Relaxing at "Dar El Medina", a charming guesthouse with a panoramic rooftop terrace, to unwind and soak in the panoramic city views.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Best Food is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 out of 5 stars based on 2 reviews. The restaurant is open from 11:00 AM to 00:00 AM every day except Sundays. It is located at the coordinates (36.7419341, 10.2651902).
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1224,15 +1494,65 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great place to stay, check out Dar Hamouda La Medina Tunis at 31 Rue Sidi Ben Arous, Tunis 1000. 
-This top-rated guest house is perfect for travelers who love Maison d'hotes and offers a cozy and authentic experience. 
-With a rating of 4.6, it's a popular choice among visitors. It's open 24/7, so you can check in at your convenience. 
-To get there, use these GPS coordinates: 36.798473809286, 10.170155731109. For more details, visit their website at https://www.google.com/maps/place/Dar+Hamouda+La+M%C3%A9dina+Tunis/data=!4m10!3m9!1s0x12fd339988c682b9:0x60ae866e8f8915cf!5m2!4m1!1i2!8m2!3d36.7984705!4d10.1701415!16s%2Fg%2F11v9k1hjzx!19sChIJuYLGiJkz_RIRzxWJj26GrmA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 435 960.</t>
+          <t>Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Maison d'hotes with a cozy and authentic experience in Ben Arous and what are its GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the Ben Arous Medina, a UNESCO World Heritage Site, and visit the Dar Hamouda La Medina Tunis guest house for a charming and authentic Tunisian experience.
+Mid-Morning: Try local cuisine at Restaurant mshwy, known for its traditional Tunisian dishes.
+Midday: Visit the "Only for kings" museum, featuring a captivating collection of royal artifacts and exhibits.
+Afternoon: Relax at Palmiland, an organic store offering a wide variety of products, and enjoy the serene ambiance of the nearby park.
+Evening: Take a guided tour of the Mosquee Hammouda-Pacha, a historic landmark showcasing stunning architecture and religious significance.
+Night: Dine at **mlwy smy@ Mlawi Samia**, a well-rated Arabic restaurant, savoring the flavors of traditional Middle Eastern cuisine.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Restaurant mshwy is located on the Km8 of the Mornag road in Ben Arous, Tunisia. It is a restaurant that is open every day from 7:00 AM to 10:00 PM except on Sundays.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1658,65 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Restaurant Route 66 located at 16 Avenue du 14 Janvier 2011, Ben Arous 2013. This Restaurant is a must-visit spot with a rating of 3.3. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 36.755546740027, 10.220259740037. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Route+66/data=!4m7!3m6!1s0x12fd37e70e7e2235:0xa71b62a65dae372a!8m2!3d36.7548439!4d10.2211165!16s%2Fg%2F11jd8ws5sw!19sChIJNSJ-Duc3_RIRKjeuXaZiG6c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 494 949.</t>
+          <t>Restaurant Route 66 is located in Ben Arous, Tunisia, at the coordinates (36.755546740027, 10.220259740037). It offers a variety of dining options, including pizza, fast food, and delivery. The restaurant has received an average rating of 3.3 stars from 53 reviews on Google Maps.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where is the top-rated Restaurant in Ben Arous located, and what are its GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring Cafe’in, a charming coffee shop with high ratings.
+Mid-Morning: Experience the local culture at IRIE Ben Arous, a local administration office.
+Midday: Have a delightful lunch at **mlwy smy@ Mlawi Samia**, an acclaimed Arabic restaurant.
+Afternoon: Visit Mosquee Hammouda-Pacha, a captivating architectural gem showcasing the city's rich heritage.
+Evening: Shop for souvenirs and local products at BioEclat naturel, a highly-rated beauty store.
+Night: Enjoy a delicious dinner at Fricasse Fardaws, a popular restaurant serving authentic Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+The ZONE 51 is a popular restaurant located in Ben Arous, Tunisia, featuring a diverse menu of delectable dishes. With an impressive rating of 4.5, it attracts diners from near and far. Geographically, it is situated at the coordinates (36.7419111, 10.2291509), making it easily accessible. The restaurant caters to customers from Monday to Saturday, remaining closed on Sundays, and offers a welcoming ambiance from 9:00 AM to midnight.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1818,71 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you are in ben arous and looking for a Station de metro, check out Ben Arous located at Ben Arous. This top-rated destination is perfect for Station de metro lovers and offers a range of Station de metro to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.transtu.tn/fr/</t>
+          <t>**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Station de metro in Ben Arous, earning a 4.4 rating and offering a wide selection of Station de metro options?</t>
+          <t>Day Plan:
+Morning: Explore Mosquee Hammouda-Pacha, a captivating architectural gem located in the heart of Tunis. Immerse yourself in its rich cultural heritage and admire its awe-inspiring beauty.
+Mid-Morning: Indulge in the authentic flavors of Ben Arous at "Only for kings," a highly-rated museum renowned for its exceptional artistry and beauty. Enjoy a delightful dining experience as you savor the local cuisine.
+Midday: Visit Palmiland, a health food store located in ben arous. Explore the wide variety of health food options available, and enjoy a light and healthy lunch made from locally sourced ingredients.
+Afternoon: Head to Top cafe, a cafe and grill restaurant that offers a variety of delicious dishes and drinks. Relax and enjoy the ambiance while catching up with friends or family.
+Evening: Visit Fricasse Fardaws, a highly-rated Tunisian restaurant. Treat yourself to a traditional Tunisian dinner featuring a variety of mouthwatering dishes and drinks.
+Night: Experience the vibrant nightlife of Ben Arous by exploring local markets and shopping for souvenirs. Immerse yourself in the local culture and find unique items to cherish your memories.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Errouge is a highly-rated (4.7/5) restaurant located in Ben Arous, Tunisia at coordinates (36.7598857, 10.2263836). Its primary category is Restaurant, but no further details about its offerings or ambiance are available.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1560,12 +1992,65 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something related to Administration locale, check out IRIE Ben Arous located at IRIE Ben Arous, Rue Ibn Zaydoun, Cite du Stade, Ben Arous 2013. This top-rated destination is perfect for Administration locale lovers and offers a range of categories to choose from. With a rating of 3.8, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7637624, 10.226791. For more details, visit their website at http://www.isie.tn/ or call them at 70 018 545.</t>
+          <t>The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Administration locale destination with a range of categories to choose from in Ben Arous, featuring a rating of 3.8?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Ben Arous, a historic neighborhood known for its narrow streets, lively markets, and traditional architecture.
+Mid-Morning: Visit the Dar El Medina guesthouse, a charming and authentic Tunisian experience that offers panoramic city views from its rooftop terrace.
+Midday: Lunch at Chez le prince, a renowned restaurant known for its high-quality cuisine and cozy atmosphere.
+Afternoon: Take a guided tour of the Mosquee Hammouda-Pacha, an architectural gem with a blend of religious fervor and awe-inspiring beauty.
+Evening: Enjoy scenic views of Ben Arous from the rooftop terrace of the Dar El Medina guesthouse.
+Night: Immerse yourself in the local culture at "**mlwy smy@ Mlawi Samia**", a well-rated Arabic restaurant that serves a diverse menu of traditional dishes.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Chez le prince, located in Ben Arous, is a 5-star rated restaurant open 24 hours a day. It offers a dining experience with a focus on providing high-quality cuisine in a cozy and welcoming atmosphere. The restaurant's exact location is at 36.7419111 latitude and 10.2291509 longitude.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1663,12 +2148,68 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Municipalite Ben Arous located at P6XF+8R9 Municipalite Ben Arous, Ben Arous. This top-rated destination with a rating of 3.8 is perfect for Hotel de ville lovers. For more details, visit their website at https://www.google.com/maps/place/Municipalit%C3%A9+Ben+Arous/data=!4m7!3m6!1s0x12fd365d6c824e3d:0x1506924b8df3eec0!8m2!3d36.7482753!4d10.2246083!16s%2Fg%2F11dxm5bjwl!19sChIJPU6CbF02_RIRwO7zjUuSBhU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated destination for Hotel de ville lovers located in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore the charming guest house of Dar Hamouda La Medina Tunis, known for its traditional architectural style, known for its traditional architectural style and authentic Tunisian experience.
+Mid-Morning: Visit the IRIE Ben Arous for local administrative services and learn more about the local government. Take some time to visit the nearby BioEclat naturel store for a collection of beauty products.
+Midday: Try local cuisine at Fricasse Fardaws, a highly-rated Tunisian restaurant serving traditional dishes in Ben Arous.
+Afternoon: Explore the "Only for kings" museum in Ben Arous, which houses a collection of royal artifacts and provides insights into the rich history of the region.
+Evening: Embark on a guided tour of Mosquée Hammouda-Pacha, a captivating architectural gem known for its religious significance and stunning beauty.
+Night: Indulge in a delightful dinner at mlwy smy@ Mlawi Samia, a well-rated Arabic restaurant offering a diverse menu of authentic dishes.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+The ZONE 51 is a popular restaurant located in Ben Arous, Tunisia, featuring a diverse menu of delectable dishes. With an impressive rating of 4.5, it attracts diners from near and far. Geographically, it is situated at the coordinates (36.7419111, 10.2291509), making it easily accessible. The restaurant caters to customers from Monday to Saturday, remaining closed on Sundays, and offers a welcoming ambiance from 9:00 AM to midnight.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1770,14 +2311,65 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Mosquee Hammouda-Pacha located at Q5XC+74W Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, Tunis. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee, Attraction touristique categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. For more details, visit their website at https://www.zitounatunisia.com/%3Fm%3D1 or call them at None.</t>
+          <t>Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in ben arous can you visit a highly-rated Mosquee with Mosquee, Attraction touristique categories?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Ben Arous, visiting landmarks like Mosquee Hammouda-Pacha and Dar Hamouda La Medina Tunis.
+Mid-Morning: Visit Ben Arous Archaeological Museum to delve into the region's rich history and culture.
+Midday: Savor a delectable lunch at Mlewi Khmissa, known for its traditional Tunisian cuisine.
+Afternoon: Engage in a guided tour of the "Only for Kings" museum, showcasing captivating exhibits.
+Evening: Relax and rejuvenate at BioEclat naturel, indulging in their renowned beauty products.
+Night: Dine at "The King Place" for an appetizing fast food meal, ending the day with a satisfying culinary experience.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Mlewi Khmissa is a restaurant located in Ben Arous, Tunisia, offering a dining experience with a 4.3-star rating based on 3 reviews. It is open from 10:00 to 17:00 during weekdays, but closed on Sundays. The exact location is at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous, and the coordinates are (36.7564777, 10.2280057). Unfortunately, there is no further information available regarding its website, featured image, and review keywords.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1871,12 +2463,70 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Only for kings located at P6WC+C2J Only for kings, Rue ksar hellal, Ben Arous. 
-This top-rated destination is perfect for Musee lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.733446501537, 10.236737001798.</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr"/>
+          <t>"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore the charming streets of Ben Arous and visit Mosquee Hammouda-Pacha, a captivating architectural gem.
+Mid-Morning: Try local cuisine at Fricasse Fardaws, a highly rated Tunisian restaurant, and indulge in traditional dishes and drinks.
+Midday: Visit the Municipalite Ben Arous, the town hall, to learn about the city's history and services.
+Afternoon: Enjoy scenic views from the Palmiland organic store, while shopping for a variety of products.
+Evening: Participate in a cultural immersion experience at "Only for kings" museum, showcasing the city's rich heritage.
+Night: Relax with a calming massage at BioEclat naturel, a beauty store offering a range of products and services.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Chicago's Food &amp; Drink is a restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including sandwiches, burgers, salads, and more. The restaurant has received positive reviews, with many customers praising the food and service. It is also conveniently located, making it a popular destination for locals and tourists alike.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1968,12 +2618,77 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>In ben arous, consider visiting Only for kings at Rue ksar hellal, Ben Arous. Rated 5.0, this popular Musee has received 2 reviews and is a must-visit destination. Use the GPS coordinates 36.733446501537, 10.236737001798 to find your way there.</t>
+          <t>**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated museum with the coordinates 36.733446501537, 10.236737001798?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the Ben Arous City Center, a bustling hub with numerous shops, cafes, and attractions.
+**Mid-Morning:**
+- Visit the Dar El Medina guesthouse for an authentic Tunisian experience and immerse yourself in the local culture.
+**Midday:**
+- Dine at "Only for kings" museum, highly-rated for its unique ambiance and delectable dining experience.
+**Afternoon:**
+- Explore the Mosquee Hammouda-Pacha, a historical architectural landmark known for its beauty and serenity.
+**Evening:**
+- Shop for souvenirs and local products at the vibrant Ben Arous Market.
+**Night:**
+- Enjoy a relaxing dinner at Top cafe, renowned for its grilled dishes and cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant named Wida JUCE Ezahra located in ben arous with following details:
+- Work hours: 11:00 AM to 11:00 PM
+- Rating: 4.0
+- Main category is Restaurant.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2794,65 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated beauty store, check out BioEclat naturel located at BioEclat naturel, bloc &lt;&lt; c &gt;&gt;, Residence el zouhour app13, Ben Arous 2074. This must-visit spot has a 5.0 rating and offers a range of beauty products to choose from. It's open during these hours: 09:00-17:00, but closed on Saturday and Sunday. To get there, use these GPS coordinates: 36.7306903, 10.2040316. For more details, call them at 56 721 938.</t>
+          <t>The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed beauty store with a 5.0 rating in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Exploring Cafe'in and trying local coffee
+Mid-Morning: Shopping for beauty products at BioEclat naturel
+Midday: Enjoying a meal and scenic views at Dar El Medina
+Afternoon: Visiting the historic Mosquee Hammouda-Pacha for cultural immersion
+Evening: Dining at **mlwy smy@ Mlawi Samia** for an authentic Arabic experience
+Night: Relaxing and enjoying the nightlife at Top cafe</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Best Food is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 out of 5 stars based on 2 reviews. The restaurant is open from 11:00 AM to 00:00 AM every day except Sundays. It is located at the coordinates (36.7419341, 10.2651902).
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2190,12 +2958,65 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out For Family Natural Concept located at 5 Av. 13 Aout, Ben Arous 2096. This top-rated destination is perfect for Epicerie fine lovers and offers a range of Epicerie fine to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-19:30. To get there, use these GPS coordinates: 36.740706193606, 10.237029907404. For more details, visit their website at https://www.google.com/maps/place/For+Family+Natural+Concept/data=!4m7!3m6!1s0x12fd3724a4803ac7:0x243e0ab0ae4e5ef9!8m2!3d36.7407466!4d10.2370016!16s%2Fg%2F11rfsvpwt9!19sChIJxzqApCQ3_RIR-V5OrrAKPiQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 990 036.</t>
+          <t>For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Epicerie fine destination with a convenient location in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Start your day by Exploring the Municipalite Ben Arous, a town hall offering various services and cultural facilities.
+Mid-Morning: Immerse yourself in culture at Mosquee Hammouda-Pacha, an awe-inspiring architectural gem with religious significance.
+Midday: Indulge in local cuisine at Fricasse Fardaws, a highly-rated Tunisian restaurant serving traditional dishes and drinks.
+Afternoon: Visit the IRIE Ben Arous, a local administration office providing insights into the city's governance and services.
+Evening: Head to Cafe’in, a cozy and highly-rated coffee shop, for a relaxing break and a chance to savor the local coffee culture.
+Night: Experience the vibrant nightlife at Le coin de el medina, a fast food restaurant with a lively atmosphere and delicious offerings.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant mshwy is located on the Km8 of the Mornag road in Ben Arous, Tunisia. It is a restaurant that is open every day from 7:00 AM to 10:00 PM except on Sundays.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2305,14 +3126,68 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Palmiland located at Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033.
-This top-rated destination is perfect for Magasin bio lovers and offers a range of Magasin bio to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.763508294992, 10.245939576977. For more details, visit their website at https://palmiland.tn/ or call them at 99 066 010.</t>
+          <t>Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>If you're in Ben Arous and craving Magasin bio, where can you find a top-rated destination with a 5.0 rating and a wide selection to choose from?</t>
+          <t>Day Plan:
+Morning: Explore **Dar Hamouda La Medina Tunis**
+Mid-Morning: Visit **Mosquee Hammouda-Pacha**
+Midday: Try local cuisine at **Restaurant lina**
+Afternoon: Enjoy scenic views at **Palmiland**
+Evening: Immerse yourself in culture at **"Only for kings"**
+Night: Relax with a coffee at **Cafe’in**</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Restaurant lina is a highly rated restaurant in Ben Arous, Tunisia. It has received 2 reviews and has a perfect 5.0 rating. The main category of Restaurant lina is Restaurant. It is located at the coordinates (36.7434809, 10.2346424).
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2422,14 +3297,65 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Palmiland located at Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033. 
-This top-rated destination is perfect for Magasin bio lovers and offers a range of Magasin bio to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.763508294992, 10.245939576977. For more details, visit their website at https://palmiland.tn/ or call them at 99 066 010.</t>
+          <t>Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>If you're in Ben Arous and craving Magasin bio, what top-rated destination is a must-visit for its exceptional Magasin bio selection and boasts a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic charm of Mosquee Hammouda-Pacha, a captivating architectural gem in the heart of Tunis.
+Mid-Morning: Immerse yourself in Tunisian culture at '*mlwy smy@ Mlawi Samia**, a highly rated Arabic restaurant offering a diverse menu of authentic dishes.
+Midday: Delight in a memorable dining experience at Restaurant Chez ALLEL, a 5-star rated restaurant renowned for its quality and customer satisfaction.
+Afternoon: Visit the "Only for kings" museum to delve into Ben Arous's rich history and cultural heritage.
+Evening: Experience the vibrant atmosphere of Cafe Chihi, a 5-star rated cafe offering a variety of services and amenities.
+Night: Relax and unwind at Top cafe, a charming cafe and grill restaurant known for its delicious dishes and welcoming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant Chez ALLEL is a 5-star rated restaurant located in Ben Arous, Tunisia, offering a dining experience with a focus on quality and customer satisfaction. It is situated at the coordinates (36.761469215509, 10.224546236091), making it easily accessible for visitors. With a focus on providing a memorable dining experience, Chez ALLEL aims to cater to the diverse tastes and preferences of its discerning clientele.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2539,12 +3465,74 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Charab Chifa located at 71 RUE DE LA REPUBLIQUE MEGRINE BEN AROUS, 2033. This top-rated destination is perfect for Magasin d'alimentation naturelle lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-20:00, but closed on . To get there, use these GPS coordinates: 36.770035688193, 10.243920083271. For more details, visit their website at http://www.charab-chifa.com/ or call them at 71 295 886.</t>
+          <t>Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you indulge in top-rated Magasin d'alimentation naturelle experiences at Charab Chifa?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the charming Dar El Medina guesthouse and soak up the panoramic city views from the rooftop terrace.
+**Mid-Morning:**
+- Try the local cuisine at Errouge, a highly-rated restaurant serving traditional Tunisian dishes.
+**Midday:**
+- Visit Mosquee Hammouda-Pacha, a captivating architectural gem in the heart of Tunis.
+**Afternoon:**
+- Go shopping for souvenirs and local products at the vibrant Superette MAYSSA grocery store.
+**Evening:**
+- Enjoy a scenic walk through Palmiland, a health food store with a beautiful garden area.
+**Night:**
+- Experience the authentic Tunisian ambiance at **mlwy smy@ Mlawi Samia**, a well-rated Arabic restaurant.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Errouge is a highly-rated (4.7/5) restaurant located in Ben Arous, Tunisia at coordinates (36.7598857, 10.2263836). Its primary category is Restaurant, but no further details about its offerings or ambiance are available.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2650,16 +3638,68 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Superette MAYSSA located at P7V4+49Q Superette MAYSSA, Ben Arous 2063. 
-This top-rated destination is perfect for Magasin d'alimentation naturelle lovers and offers a range of Magasin d'alimentation naturelle to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:30-22:00. 
-To get there, use these GPS coordinates: 36.742845, 10.2559416. For more details, visit their website 
-at https://www.google.com/maps/place/Superette+MAYSSA/data=!4m7!3m6!1s0x12fd3621156f1549:0x836abdfe522ab4b0!8m2!3d36.7428445!4d10.2559902!16s%2Fg%2F11cr__t6jy!19sChIJSRVvFSE2_RIRsLQqUv69aoM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 058 317.</t>
+          <t>Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated destination offering a range of enticing Magasin d'alimentation naturelle options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquee Hammouda-Pacha, a beautiful architectural gem located in the heart of Tunis.
+Mid-Morning: Take a guided tour of the "Only for kings" museum in Ben Arous to discover its captivating collection of artifacts.
+Midday: Try local cuisine at the highly rated "The King Place" fast food restaurant, known for its delicious burgers and wraps.
+Afternoon: Engage in outdoor activities at Palmiland, an organic store offering a wide variety of products, and enjoy their beautiful surroundings.
+Evening: Relax with a spa treatment at the BioEclat naturel store in Ben Arous, offering a peaceful and rejuvenating experience.
+Night: Experience cultural immersion at the mlwy smy@ Mlawi Samia Arabic restaurant, serving a diverse menu of authentic dishes.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Dar Fatma is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on one review and offers a variety of food options. The restaurant is located at the coordinates (36.739980239295, 10.2527309193).
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2765,12 +3805,71 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out For Family Natural Concept located at 5 Av. 13 Aout, Ben Arous 2096. This top-rated destination is perfect for Epicerie fine lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-19:30. To get there, use these GPS coordinates: 36.740706193606, 10.237029907404. For more details, visit their website at  or call them at 29 990 036.</t>
+          <t>For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find the highly rated For Family Natural Concept, known for its exceptional Epicerie fine offerings?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical Medina of Ben Arous, a UNESCO World Heritage Site, for a glimpse into the city's rich cultural heritage.
+Mid-Morning:
+- Visit the Mosquee Hammouda-Pacha, an iconic architectural gem that showcases the city's religious fervor and beauty.
+Midday:
+- Savor the local cuisine at Fricasse Fardaws, a highly-rated Tunisian restaurant offering a delectable array of traditional dishes.
+Afternoon:
+- Engage in a rejuvenating experience at a hammam, a traditional Arabic bathhouse, to relax and unwind in the local style.
+Evening:
+- Try out the delicious street food at Superette MAYSSA, a natural grocery store specializing in organic products.
+Night:
+- Enjoy a memorable dining experience at "The King Place," a fast food restaurant offering a range of delectable dishes.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Resto Mahdouch is a highly-rated restaurant situated in Ben Arous (36.7419111, 10.2291509) and offers a delightful dining experience. Open from 8:00 am to 9:00 pm during weekdays, it remains closed on Sundays.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2860,14 +3959,71 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Ecovillage located at P7G4+9HQ Ecovillage, Centre Commercial AZUR CITY. 
-This top-rated destination is perfect for lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at  or call them at .</t>
+          <t>The Ecovillage is located in the Centre Commercial AZUR CITY, Ben Arous. It has a 5.0 rating based on one review. The Ecovillage offers various products and services, ensuring a memorable experience.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated lover's destination located in Ecovillage in Ben Arous, boasting a 5.0 rating and offering various categories to choose from?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of Ben Arous
+- Start the day by immersing in the historic beauty of the Medina of Ben Arous, a UNESCO World Heritage Site. Wander through its narrow streets, admire traditional architecture, and delve into the vibrant local culture.
+Mid-Morning: Trying local cuisine at Restaurant Lina
+- Indulge in the authentic flavors of Tunisian cuisine at Restaurant Lina, renowned for its excellent ratings. Savor a delectable breakfast or brunch while enjoying the warm and friendly atmosphere.
+Midday: Visiting Mosquee Hammouda-Pacha
+- Explore the architectural marvel of Mosquee Hammouda-Pacha, an iconic landmark in the heart of Tunis. Admire its intricate details, intricate tilework, and serene ambiance, offering a glimpse into the rich cultural heritage of the city.
+Afternoon: Relaxing at BioEclat Naturel
+- Pamper yourself with a rejuvenating experience at BioEclat Naturel. Discover a vast collection of natural beauty products and indulge in a relaxing spa treatment or massage, leaving you refreshed and revitalized for the rest of your day.
+Evening: Enjoying scenic views at Palmiland
+- Escape the hustle and bustle of the city at Palmiland, an organic store offering a tranquil ambiance. As the sun begins to set, soak in the picturesque views while sipping on a refreshing beverage and savoring the moment.
+Night: Trying fast food at "The King Place"
+- Experience the local fast-food scene at "The King Place," known for its delicious burgers, sandwiches, and wraps. Enjoy a casual dinner while mingling with the locals and immersing yourself in the lively atmosphere of the restaurant.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Restaurant lina is a highly rated restaurant in Ben Arous, Tunisia. It has received 2 reviews and has a perfect 5.0 rating. The main category of Restaurant lina is Restaurant. It is located at the coordinates (36.7434809, 10.2346424).
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2977,15 +4133,65 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a place to eat, check out Chicago's Food &amp; Drink located at 6 Rue De Gaza, Ben Arous 2014. 
-This top-rated restaurant is perfect for diners and offers a range of delicious food to choose from.
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on Sundays. 
-To get there, use these GPS coordinates: 51.8798574, -0.4190164. For more details, visit their website at https://www.facebook.com/ChicagosFood/ or call them at 27 358 065.</t>
+          <t>Chicago's Food &amp; Drink is a restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including sandwiches, burgers, salads, and more. The restaurant has received positive reviews, with many customers praising the food and service. It is also conveniently located, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant serving delectable cuisine and conveniently located in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Ben Arous, a traditional market district with vibrant stalls and narrow streets.
+Mid-Morning: Visit Dar El Medina, a charming guesthouse, for a leisurely coffee and a panoramic view of the city from the rooftop terrace.
+Midday: Try local cuisine at Fast Food Rapido, known for its tasty fast food options.
+Afternoon: Visit the IRIE Ben Arous, a local administration office, to learn about the city's governance and history.
+Evening: Take a guided tour of Mosquee Hammouda-Pacha, a captivating architectural gem that showcases the city's rich cultural heritage.
+Night: Enjoy dinner at "The King Place", a fast food restaurant offering a variety of delicious dishes.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Fast Food Rapido is a Restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on 3 reviews. Fast Food Rapido is open from 10:00-22:00, Monday-Saturday.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3095,14 +4301,65 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Le coin de el medina located at P7X2+R84 Le coin de el medina, A cote cafe El BELLAR, Rue Du Lieutenant Mohamed Ezzaghbani, Ben Arous 2063. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on none. To get there, use these GPS coordinates: 36.752242484154, 10.250200676228. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100084707864049 or call them at 95 873 738.</t>
+          <t>Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find Le coin de el medina, a top-rated destination for Restauration rapide enthusiasts with a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the captivating Mosquee Hammouda-Pacha, a historic landmark that blends religious fervor with architectural beauty.
+Mid-Morning: Immerse yourself in the local culinary scene by trying traditional Tunisian dishes and drinks at the highly-rated Tunisian restaurant, Fricasse Fardaws.
+Midday: Visit the Municipalite Ben Arous, the town hall that offers a glimpse into the local governance and cultural offerings of the city.
+Afternoon: Engage in outdoor activities and enjoy scenic views at Palmiland, a health food store that offers a relaxing ambience and unique shopping experience.
+Evening: Take a stroll through the charming streets of Ben Arous, immersing yourself in the vibrant local atmosphere.
+Night: Indulge in a delightful dining experience at "The King Place," a fast-food restaurant known for its delicious burgers, sandwiches, and wraps.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Mlewi Khmissa is a restaurant located in Ben Arous, Tunisia, offering a dining experience with a 4.3-star rating based on 3 reviews. It is open from 10:00 to 17:00 during weekdays, but closed on Sundays. The exact location is at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous, and the coordinates are (36.7564777, 10.2280057). Unfortunately, there is no further information available regarding its website, featured image, and review keywords.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3208,14 +4465,65 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Bongout Cafe Resto located at Centre commercial, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on . To get there, use these GPS coordinates: 36.7393478, 10.2091739. For more details, visit their website at  or call them at 24 324 441.</t>
+          <t>Bongout Cafe Resto is a highly-rated restaurant in Ben Arous, Tunisia, known for its delectable cuisine and cozy ambiance. Nestled in the heart of the city, it offers a convenient location for locals and visitors alike. Bongout Cafe Resto has garnered 6 positive reviews, making it a must-visit for those seeking a memorable dining experience. Its extensive menu caters to various tastes, and its prime location makes it easily accessible.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>What top-rated destination in Ben Arous offers a wide selection of Restaurant options and is perfect for Restaurant enthusiasts, with a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Ben Arous, a captivating labyrinth of narrow streets and bustling souks.
+Mid-Morning: Sample traditional Tunisian cuisine at Fricasse Fardaws, a highly-rated restaurant serving authentic dishes.
+Midday: Visit the grand Mosquee Hammouda-Pacha, an architectural masterpiece that showcases the rich cultural heritage of Tunis.
+Afternoon: Indulge in some retail therapy at For Family Natural Concept, a local grocery store offering a diverse selection of fine foods.
+Evening: Take a relaxing stroll through Palmiland, an organic store with a serene ambiance and a wide variety of products.
+Night: Savor a delectable dinner at **mlwy smy@ Mlawi Samia**, an Arabic restaurant renowned for its exquisite cuisine.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Errouge is a highly-rated (4.7/5) restaurant located in Ben Arous, Tunisia at coordinates (36.7598857, 10.2263836). Its primary category is Restaurant, but no further details about its offerings or ambiance are available.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3321,12 +4629,65 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated restaurant, check out ZONE 51 located at 3, ZONE 51. With a rating of 4.5, this restaurant is a must-visit spot. It's open during these hours: 09:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.google.com/maps/place/ZONE+51/data=!4m7!3m6!1s0x12fd37312267385b:0x5d2b711478aa509d!8m2!3d36.7408627!4d10.2520003!16s%2Fg%2F11l2w47n78!19sChIJWzhnIjE3_RIRnVCqeBRxK10?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 287 312.</t>
+          <t>The ZONE 51 is a popular restaurant located in Ben Arous, Tunisia, featuring a diverse menu of delectable dishes. With an impressive rating of 4.5, it attracts diners from near and far. Geographically, it is situated at the coordinates (36.7419111, 10.2291509), making it easily accessible. The restaurant caters to customers from Monday to Saturday, remaining closed on Sundays, and offers a welcoming ambiance from 9:00 AM to midnight.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in ben arous can you find a highly-rated restaurant called ZONE 51 that's open late into the night?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Medina of Ben Arous
+Mid-Morning: Trying local cuisine at Best Food, known for its authentic Tunisian dishes
+Midday: Visiting the Mosquee Hammouda-Pacha, an architectural gem with captivating beauty
+Afternoon: Enjoying scenic views at Palmiland, an organic store offering a wide variety of products
+Evening: Relaxing with a traditional hammam experience at Dar Hamouda La Medina Tunis
+Night: Indulging in Arabic cuisine at **mlwy smy@ Mlawi Samia**, known for its diverse menu and authentic flavors</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Best Food is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 out of 5 stars based on 2 reviews. The restaurant is open from 11:00 AM to 00:00 AM every day except Sundays. It is located at the coordinates (36.7419341, 10.2651902).
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3432,12 +4793,68 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Top cafe located at 03 bis rue du mercure. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 05:30-15:30, but closed on dimanche. To get there, use these GPS coordinates: 36.751573750217, 10.237681448638. For more details, visit their website at https://www.google.com/maps/place/Top+caf%C3%A9/data=!4m7!3m6!1s0x12fd37a9e94d72d3:0x765cf730ed902e97!8m2!3d36.7435003!4d10.2319757!16s%2Fg%2F11h84r3yly!19sChIJ03JN6ak3_RIRly6Q7TD3XHY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 457 755.</t>
+          <t>Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated Cafe et restaurant de grillades destination with a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the captivating historic landmark, Mosquee Hammouda-Pacha, located in the heart of Tunis. Immerse yourself in its architectural beauty and religious significance.
+Mid-Morning: Indulge in the authentic flavors of Tunisian cuisine at the highly-rated Fricasse Fardaws. Savor the traditional dishes and drinks that reflect the rich culinary heritage of the region.
+Midday: Take a guided tour of the IRIE Ben Arous, a local administration office, to gain insights into the local governance and administrative systems.
+Afternoon: Enjoy a scenic walk through the natural beauty of Palmiland's organic store. Discover a wide variety of products and appreciate the commitment to sustainability and organic farming practices.
+Evening: Visit the Only for kings museum to delve into the rich history and heritage of Ben Arous. Explore its exhibits and uncover the stories of the past.
+Night: Relax and rejuvenate with a tranquil spa experience at For Family Natural Concept, a delicatessen offering natural and organic products. Indulge in pampering treatments and unwind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Best Food is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 out of 5 stars based on 2 reviews. The restaurant is open from 11:00 AM to 00:00 AM every day except Sundays. It is located at the coordinates (36.7419341, 10.2651902).
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3543,14 +4960,68 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out PIZZARIA PAPA'S Pizza a bois located at P6WG+Q77 PIZZARIA PAPA'S Pizza a bois, Av. de la Republique, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 36.737164666123, 10.248939136835. For more details, visit their website or call them at 96 513 815.</t>
+          <t>PIZZARIA PAPA'S Pizza a bois is a pizzeria located on Av. de la Republique in Ben Arous, Tunisia. It offers wood-fired pizzas and has a rating of 4.6 out of 5 stars on Google Maps. The pizzeria is open from 11:00am to 22:00pm and is closed on Fridays. Its coordinates are 36.737164666123, 10.248939136835.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (rating: 4.6) in Ben Arous that serves pizza and is known for being a popular destination for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Municipalite Ben Arous, Ben Arous's city hall, to gain insights into local governance.
+Mid-Morning: Visit the "Only for Kings" museum to marvel at its captivating collection of royal artifacts and immerse yourself in Ben Arous's rich history.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant Princesse, renowned for its exquisite dishes and warm hospitality.
+Afternoon: Stroll through Palmiland, an organic store, to discover a vast array of local products and support sustainable living practices.
+Evening: Indulge in a revitalizing spa experience at Dar El Medina to rejuvenate your body and mind.
+Night: Experience the vibrant atmosphere of Ben Arous Station, the central hub of the city, and connect with the locals.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant Princesse is a highly-rated (5.0/5) eatery located in Ben Arous, Tunisia. It is open daily from 09:00-22:00 and is conveniently located near Rue de Paris. Despite not having an official website, it has garnered positive reviews on Google Maps for its delicious cuisine and friendly service.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3652,12 +5123,68 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Fricasse Fardaws located at P6XC+778 Fricasse Fardaws, Ben Arous. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-21:00, but closed on []. To get there, use these GPS coordinates: 36.734726716394, 10.31555792038.</t>
+          <t>Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant tunisien spot with GPS coordinates 36.734726716394, 10.31555792038 in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Tunis, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Palmiland organic store in Ben Arous for a range of natural products.
+Midday: Enjoy lunch at Fricasse Fardaws, a highly-rated Tunisian restaurant known for its authentic cuisine.
+Afternoon: Spend the afternoon exploring Cafe’in, a charming coffee shop in Ben Arous, for a coffee and a taste of local culture.
+Evening: Participate in a guided tour of the Mosquee Hammouda-Pacha, an architectural gem showcasing the city's rich heritage.
+Night: Dine at "The King Place" for a satisfying fast food meal and conclude the day with a relaxing evening at Top cafe, a local favorite for late-night bites.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Dar Fatma is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on one review and offers a variety of food options. The restaurant is located at the coordinates (36.739980239295, 10.2527309193).
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3767,12 +5294,68 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Amigos located at P6X9+WPV Amigos, Rue Naser bey, Ben Arous. This must-visit spot is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.736026735982, 10.31052032484. For more details, visit their website at https://www.facebook.com/Amigos-101000905760002 or call them at 54 423 625.</t>
+          <t>Amigos, located on Rue Naser bey, Ben Arous, is a restaurant offering a great dining experience with a 4.7-star rating. Open 24 hours a day, Amigos has received positive reviews, highlighting its exceptional offerings. With a main category of Restaurant, Amigos provides a variety of delicious dishes to satisfy any craving.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>What highly rated restaurant is a must-visit spot located at P6X9+WPV Amigos, Rue Naser bey in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore historic landmarks like Dar Hamouda La Medina Tunis and Mosquee Hammouda-Pacha, immersing yourself in the rich history and culture of the region.
+Mid-Morning: Visit the Municipalite Ben Arous, a town hall offering local governance services, to gain insights into local administration and community life.
+Midday: Try local cuisine at Chez le prince, a highly-rated restaurant known for its cozy atmosphere and high-quality dining experience.
+Afternoon: Engage in outdoor activities like enjoying the scenic views at Palmiland, an organic store offering a range of products.
+Evening: Explore Cafe’in, a coffee shop known for its excellent coffee offerings and relaxing ambience, a great place to unwind and socialize.
+Night: Experience local nightlife and cuisine at "The King Place," a fast-food restaurant serving delicious burgers, sandwiches, and wraps.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Chez le prince, located in Ben Arous, is a 5-star rated restaurant open 24 hours a day. It offers a dining experience with a focus on providing high-quality cuisine in a cozy and welcoming atmosphere. The restaurant's exact location is at 36.7419111 latitude and 10.2291509 longitude.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3878,12 +5461,68 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, make sure to visit Restaurant Makrem at Restaurant Makrem, N46, Av. Habib Bourguiba. With a rating of 5.0, it's a must-visit spot for Restaurant lovers. It's open during these hours: 08:30-23:00, but closed on []. To get there, use these GPS coordinates: 36.752275483472, 10.224074684865. For more details, visit their website at nan or call them at 54 609 665.</t>
+          <t>**Restaurant Makrem**: A reputable restaurant in Ben Arous, serving delicious local cuisine with a 5-star rating based on 3 positive reviews. Located at N46, Av. Habib Bourguiba (coordinates: 36.752275483472, 10.224074684865), it's well-known among locals for its high-quality food and cozy ambiance. With extended hours from 8:30 AM to 11:00 PM, Makrem offers a convenient dining experience. The establishment has a friendly owner, providing a welcoming atmosphere for guests.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly acclaimed Restaurant with a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Start your morning by exploring the ancient Medina of Tunis to delve into the rich history and culture of the city (Dar Hamouda La Medina Tunis).
+Mid-Morning: Visit the nearby Mosquee Hammouda-Pacha, an architectural gem that showcases the religious heritage of Tunisia.
+Midday: Try local cuisine at the highly-rated Tunisian restaurant, Fricasse Fardaws, to savor the authentic flavors of the region.
+Afternoon: Enjoy a relaxing afternoon with a visit to BioEclat naturel, a store offering a wide range of beauty products.
+Evening: Experience scenic views at Palmiland, an organic store with a 24-hour service and a convenient location for evening strolls.
+Night: Dine at the well-rated Arabic restaurant, mlwy smy@ Mlawi Samia, to conclude the day with a delectable culinary experience in Ben Arous.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Dar Fatma is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on one review and offers a variety of food options. The restaurant is located at the coordinates (36.739980239295, 10.2527309193).
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3981,12 +5620,71 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Errouge located at Q65G+WGW Errouge, Ben Arous. This destination is perfect for Restaurant lovers and has a rating of 4.7. It's open during these hours: 10:00-14:00. To get there, use these GPS coordinates: (36.7598857, 10.2263836).</t>
+          <t>Errouge is a highly-rated (4.7/5) restaurant located in Ben Arous, Tunisia at coordinates (36.7598857, 10.2263836). Its primary category is Restaurant, but no further details about its offerings or ambiance are available.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated Restaurant with 4.7 stars and operating hours from 10:00-14:00?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the historic Dar Hamouda La Medina Tunis, a charming guest house located in the heart of the ancient Medina of Tunis.
+**Mid-Morning:**
+- Indulge in local cuisine at **mlwy smy@ Mlawi Samia**, a well-rated Arabic restaurant.
+**Midday:**
+- Visit the Mosquee Hammouda-Pacha, a captivating architectural gem nestled in the heart of Tunis.
+**Afternoon:**
+- Shop for souvenirs and local products at For Family Natural Concept, an Epicerie fine located in Ben Arous.
+**Evening:**
+- Enjoy scenic views at "Only for kings," a highly rated museum located in Ben Arous.
+**Night:**
+- Relax with a meal at The King Place, a fast food restaurant offering a variety of dishes.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+PIZZARIA PAPA'S Pizza a bois is a pizzeria located on Av. de la Republique in Ben Arous, Tunisia. It offers wood-fired pizzas and has a rating of 4.6 out of 5 stars on Google Maps. The pizzeria is open from 11:00am to 22:00pm and is closed on Fridays. Its coordinates are 36.737164666123, 10.248939136835.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4092,12 +5790,71 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great place to eat, check out Fast Food Rapido located at 85, C35, Ben Arous. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 36.722174, 10.2136467. For more details, visit their website or call them at 28 772 518.</t>
+          <t>Fast Food Rapido is a Restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on 3 reviews. Fast Food Rapido is open from 10:00-22:00, Monday-Saturday.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated Restaurant with a range of culinary options?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Medina of Ben Arous, a charming historical district with narrow streets and traditional architecture.
+**Mid-Morning:**
+- Visit the Mosquee Hammouda-Pacha, an architectural gem adorned with intricate tilework and carvings.
+**Midday:**
+- Try local cuisine at Restaurant lina, known for its delectable Tunisian dishes and perfect 5.0 rating.
+**Afternoon:**
+- Enjoy the scenic beauty of Palmiland, a lush park with vibrant Mediterranean flora and serene walking trails.
+**Evening:**
+- Engage in cultural immersion at the "Only for kings" museum, showcasing captivating artifacts and offering insights into local history.
+**Night:**
+- Indulge in a relaxing evening at the Top cafe and grill restaurant, savoring delicious dishes in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Restaurant lina is a highly rated restaurant in Ben Arous, Tunisia. It has received 2 reviews and has a perfect 5.0 rating. The main category of Restaurant lina is Restaurant. It is located at the coordinates (36.7434809, 10.2346424).
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4203,12 +5960,68 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for somewhere to grab a great meal, look no further than Bon Gout on P6PP+HFP. Their top-rated restaurant offers a range of dining options, perfect for any foodie. With a rating of 5.0, this is a must-visit spot in the city. They're open during these hours: 07:00-00:00, but closed on [closed days, if any]. To get there, use these GPS coordinates: 36.7088134, 10.1779697. For more details, visit their website or call them at 90 007 904.</t>
+          <t>**Bon Gout** is a highly-rated restaurant (5/5) located in Ben Arous, Tunisia. It serves a variety of dishes and can be found at the coordinates (36.7088134, 10.1779697). It is open from 7 am to midnight every day.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find the highly-rated restaurant Bon Gout with convenient operating hours?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Ben Arous, visiting the local market to experience the vibrant local culture.
+Mid-Morning: Indulge in a traditional Tunisian breakfast at **mlwy smy@ Mlawi Samia**, savoring the authentic flavors of the region.
+Midday: Visit the historical **Mosquee Hammouda-Pacha**, appreciating its architectural beauty and religious significance.
+Afternoon: Enjoy the tranquility of **BioEclat naturel**, discovering an array of local beauty products and pampering yourself with their natural goodness.
+Evening: Experience the lively atmosphere at **Le coin de el medina**, relishing delectable fast food while soaking in the local ambiance.
+Night: Wind down at **Palmiland**, enjoying a variety of organic products and savoring the serene ambiance under the starlit sky.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Resto Mahdouch is a highly-rated restaurant situated in Ben Arous (36.7419111, 10.2291509) and offers a delightful dining experience. Open from 8:00 am to 9:00 pm during weekdays, it remains closed on Sundays.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4306,12 +6119,65 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great meal, check out Mlewi Khmissa located at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: (36.7564777, 10.2280057).</t>
+          <t>Mlewi Khmissa is a restaurant located in Ben Arous, Tunisia, offering a dining experience with a 4.3-star rating based on 3 reviews. It is open from 10:00 to 17:00 during weekdays, but closed on Sundays. The exact location is at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous, and the coordinates are (36.7564777, 10.2280057). Unfortunately, there is no further information available regarding its website, featured image, and review keywords.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (4.3) restaurant in Ben Arous, perfect for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the charming Old Town (Medina of Ben Arous)
+Mid-Morning: Visit the historic Mosquee Hammouda-Pacha for a glimpse of local architecture.
+Midday: Indulge in authentic Tunisian cuisine at Le Coin de el Medina, renowned for its excellent ratings.
+Afternoon: Take a leisurely stroll through the Ben Arous Municipal Gardens, offering a tranquil escape.
+Evening: Experience a traditional Arabic dinner at **mlwy smy@ Mlawi Samia**, rated highly for its authentic ambiance and delicious food.
+Night: Enjoy a relaxed evening at your hotel's spa, unwinding with a rejuvenating massage or a soothing soak in the hot tub.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+The ZONE 51 is a popular restaurant located in Ben Arous, Tunisia, featuring a diverse menu of delectable dishes. With an impressive rating of 4.5, it attracts diners from near and far. Geographically, it is situated at the coordinates (36.7419111, 10.2291509), making it easily accessible. The restaurant caters to customers from Monday to Saturday, remaining closed on Sundays, and offers a welcoming ambiance from 9:00 AM to midnight.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4417,12 +6283,68 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated dining experience, check out Restaurant Princesse located at Rue de Paris. This 5-star restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. It's open during these hours: 09:00-22:00, but closed on . To get there, use these GPS coordinates: 48.851944133018, 2.334641298819. For more details, visit their website or call them at 90 178 732.</t>
+          <t>The Restaurant Princesse is a cozy dining spot located at Rue de Paris, Q63G+97V, Ben Arous. Open from 09:00 to 22:00, it features a single main category of Restaurant, offering delicious cuisine for food enthusiasts. With a rating of 5.0, it's a highly-rated choice among diners. You can contact the restaurant at 90 178 732 for reservations or inquiries.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly rated 5-star restaurant with top-notch dining options?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Municipalite Ben Arous and discover the local administrative services it provides.
+Mid-Morning: Immerse in the rich history of Tunisia at Mosquee Hammouda-Pacha, a captivating architectural gem that showcases the country's religious fervor.
+Midday: Enjoy a delicious traditional Tunisian meal at Fricasse Fardaws, where you can savor the authentic flavors of the local cuisine.
+Afternoon: Escape to Palmiland, an organic store offering a wide variety of healthy and sustainable products.
+Evening: Experience the charm of "The King Place," a fast food restaurant serving a variety of tasty dishes, including burgers, sandwiches, and wraps.
+Night: Unwind and relax at Top Cafe, a cozy and friendly spot where you can enjoy a cup of coffee or a light meal before retiring for the day.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Mlewi Khmissa is a restaurant located in Ben Arous, Tunisia, offering a dining experience with a 4.3-star rating based on 3 reviews. It is open from 10:00 to 17:00 during weekdays, but closed on Sundays. The exact location is at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous, and the coordinates are (36.7564777, 10.2280057). Unfortunately, there is no further information available regarding its website, featured image, and review keywords.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4528,12 +6450,65 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great place to eat, check out Resto Mahdouch located at P6XC+77M Resto Mahdouch, Unnamed Road, Ben Arous. This top-rated restaurant with a 4.5 rating is open from 08:00-21:00 on all days except for dimanche. You can contact them at 98 917 177 for more details.</t>
+          <t>Resto Mahdouch is a highly-rated restaurant situated in Ben Arous (36.7419111, 10.2291509) and offers a delightful dining experience. Open from 8:00 am to 9:00 pm during weekdays, it remains closed on Sundays.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with convenient hours in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Ben Arous, a charming place to stroll through.
+Mid-Morning: Visit the IRIE Ben Arous, a local administration office, and learn about the city's history. Take a short break at Cafe’in, a highly-rated 5-star coffee shop, for a caffeine boost and a chance to mingle with locals.
+Midday: Try local cuisine at Bongout Cafe Resto, which offers a delectable menu with a cozy ambiance. Afterwards, relax and rejuvenate at a nearby spa or hotel.
+Afternoon: Explore the Municipalite Ben Arous, the city's town hall, and admire its architectural beauty. Visit the enchanting Mosquee Hammouda-Pacha, a breathtaking blend of religious fervor and architectural artistry.
+Evening: Head to Top cafe for a culinary experience, offering a diverse menu of dishes and a lively ambiance.
+Night: Take a guided tour of the "Only for Kings" museum, showcasing a captivating collection of artifacts. If you are interested in natural products, BioEclat naturel is your destination, where you can browse and purchase a wide selection of organic items.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Bongout Cafe Resto is a highly-rated restaurant in Ben Arous, Tunisia, known for its delectable cuisine and cozy ambiance. Nestled in the heart of the city, it offers a convenient location for locals and visitors alike. Bongout Cafe Resto has garnered 6 positive reviews, making it a must-visit for those seeking a memorable dining experience. Its extensive menu caters to various tastes, and its prime location makes it easily accessible.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4639,12 +6614,68 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you find yourself in ben arous, Restaurant mshwy slym is a must-visit spot for Restaurant enthusiasts. Located at Restaurant mshwy slym, Km8 route de mornage, Ben Arous 2068, this top-rated destination offers a range of Restaurant options to choose from. With an impressive 5.0 rating, it's a spot you won't want to miss. Operating hours are from 07:00-22:00 during the week, but it's closed on dimanche. For more details, you can visit their website or give them a call at 53 433 409.</t>
+          <t>Restaurant mshwy is located on the Km8 of the Mornag road in Ben Arous, Tunisia. It is a restaurant that is open every day from 7:00 AM to 10:00 PM except on Sundays.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>If you're in Ben Arous and looking for a highly rated restaurant with a wide range of options, where should you consider visiting?</t>
+          <t>Day Plan:
+Morning: Explore the charming Dar Hamouda La Medina Tunis, a restored guest house located in the heart of the ancient Medina of Tunis.
+Mid-Morning: Indulge in a delightful dining experience at Chez Sam Sam, a highly-rated restaurant known for its local and international cuisine.
+Midday: Take a leisurely walk to "Only for kings", a museum showcasing captivating exhibitions and earning high praise for its unique displays.
+Afternoon: Participate in a guided tour of Mosquee Hammouda-Pacha, an architectural gem with a rich historical significance.
+Evening: Shop for local products at For Family Natural Concept, a delicatessen specializing in organic and natural foods.
+Night: Enjoy a relaxing evening at Top cafe, a cozy restaurant serving a variety of dishes.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Chez Sam Sam is a restaurant located in Ben Arous, Tunisia, known for its high rating of 5.0 and offers a great dining experience. It is situated at the coordinates (36.757983204481, 10.221989931531), making it easily accessible to visitors.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4750,12 +6781,68 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Chez sam sam located at 24 Av. de France, Ben Arous. This highly-rated destination offers a range of categories to choose from and is a must-visit spot. It's open during these hours: 07:45-17:00, but closed on dimanche. For more details, visit their website or call them at 99 969 920.</t>
+          <t>Chez Sam Sam is a restaurant located in Ben Arous, Tunisia, known for its high rating of 5.0 and offers a great dining experience. It is situated at the coordinates (36.757983204481, 10.221989931531), making it easily accessible to visitors.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>If you find yourself in Ben Arous searching for a highly-rated restaurant with a diverse menu, where can you find Chez sam sam?</t>
+          <t>Day Plan:
+Morning: Explore the historic Dar Hamouda La Medina Tunis, immersing yourself in the rich heritage of the city.
+Mid-Morning: Indulge in local cuisine at Chez le prince, savoring the flavors of Tunisia while enjoying the cozy ambiance.
+Midday: Visit the captivating Mosquee Hammouda-Pacha, marveling at its architectural beauty and historical significance.
+Afternoon: Engage in outdoor activities at the scenic Palmiland, enjoying the fresh air and vibrant atmosphere.
+Evening: Experience cultural immersion at "Only for kings," exploring its captivating exhibits that showcase the local culture and artistry.
+Night: Relax with a rejuvenating spa session at a local spa or hotel, pampering yourself with luxurious treatments.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Chez le prince, located in Ben Arous, is a 5-star rated restaurant open 24 hours a day. It offers a dining experience with a focus on providing high-quality cuisine in a cozy and welcoming atmosphere. The restaurant's exact location is at 36.7419111 latitude and 10.2291509 longitude.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4857,14 +6944,68 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Best Food located at P7V4+479 Best Food, Ben Arous 2063. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7419341, 10.2651902. For more details, visit their website at https://www.google.com/maps/place/Best+Food/data=!4m7!3m6!1s0x12fd36216aa030c1:0xd0f2b5ac7dc90042!8m2!3d36.7427956!4d10.2557477!16s%2Fg%2F11c5441236!19sChIJwTCgaiE2_RIRQgDJfay18tA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Best Food is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 out of 5 stars based on 2 reviews. The restaurant is open from 11:00 AM to 00:00 AM every day except Sundays. It is located at the coordinates (36.7419341, 10.2651902).</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining spot in Ben Arous, Tunisia, that boasts a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic railway station of Bir Kassaa, immerse yourself in its architectural grandeur and local significance.
+Mid-Morning: Visit the Municipalite Ben Arous, the town hall of Ben Arous, to learn about local governance and history.
+Midday: Try the authentic Tunisian cuisine at Restaurant mshwy, savoring the flavors and aromas of traditional dishes.
+Afternoon: Dive into the cultural heritage of Tunisia at Mosquee Hammouda-Pacha, marveling at its architectural beauty and religious significance.
+Evening: Indulge in some retail therapy at BioEclat naturel, discovering a wide range of natural beauty products.
+Night: Experience the vibrant atmosphere of Ben Arous by visiting the lively market of Souk El Aroussa, where you can mingle with locals and immerse yourself in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant mshwy is located on the Km8 of the Mornag road in Ben Arous, Tunisia. It is a restaurant that is open every day from 7:00 AM to 10:00 PM except on Sundays.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4962,15 +7103,67 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in ben arous, Restaurant Chez ALLEL is the place for you! 
-This awesome spot located at 58 Av. de France, is perfect for Restaurant lovers. 
-With a 5.0 rating, you know it's worth your visit. 
-To get there, just plug in the GPS coordinates: 36.761469215509, 10.224546236091.</t>
+          <t>Restaurant Chez ALLEL is a 5-star rated restaurant located in Ben Arous, Tunisia, offering a dining experience with a focus on quality and customer satisfaction. It is situated at the coordinates (36.761469215509, 10.224546236091), making it easily accessible for visitors. With a focus on providing a memorable dining experience, Chez ALLEL aims to cater to the diverse tastes and preferences of its discerning clientele.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated restaurant called Restaurant Chez ALLEL, known for its excellent food and ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring the charming streets of the Medina of Ben Arous
+Mid-Morning: Trying local cuisine at Restaurant Hammami for a taste of authentic Tunisian flavors
+Midday: Visiting the Mosquee Hammouda-Pacha to admire its architectural beauty and historical significance
+Afternoon: Enjoying scenic views at Palmiland, an organic store offering stunning surroundings
+Evening: Participating in a traditional cooking class at For Family Natural Concept, where you can learn about local cuisine and prepare your own dishes
+Night: Relaxing with a spa treatment at BioEclat naturel to rejuvenate and unwind</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Restaurant Hammami is a highly rated (4.0/5 stars) restaurant situated in the heart of Ben Arous,Tunisia.
+This restaurant is accessible at the following coordinates (36.7152421, 10.3610699) and offers a wide array of culinary delights.
+You can visit it between 10 AM to 10 PM every day of the week and savor the delectable dishes they have to offer.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5076,14 +7269,68 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out The king place located at P7V4+35R The king place, Unnamed Road, Ben Arous. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.google.com/maps/place/The+king+place/data=!4m7!3m6!1s0x12fd3786dce049e3:0x7b31334f18a7dc09!8m2!3d36.7427254!4d10.255402!16s%2Fg%2F11spdfz79g!19sChIJ40ng3IY3_RIRCdynGE8zMXs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 304 781.</t>
+          <t>"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated (5.0) destination for Restauration rapide enthusiasts, open from 11:30-00:00?</t>
+          <t>Day Plan:
+Morning: Explore Ben Arous City Center, admiring the bustling atmosphere and local architecture.
+Mid-Morning: Visit the Municipalite Ben Arous, immerse yourself in the heart of local governance, and learn about the city's history and development.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant Makrem, renowned for its exquisite local dishes and warm hospitality.
+Afternoon: Discover the rich cultural heritage of Tunis at Mosquee Hammouda-Pacha, an architectural masterpiece that blends religious fervor with breathtaking beauty.
+Evening: Shop for local souvenirs and unique items at For Family Natural Concept, an epicerie fine offering a wide selection of local specialties and artisanal products.
+Night: Experience the vibrant nightlife of Ben Arous at **The King Place**, a fast food restaurant known for its delectable burgers and the lively atmosphere it offers.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+**Restaurant Makrem**: A reputable restaurant in Ben Arous, serving delicious local cuisine with a 5-star rating based on 3 positive reviews. Located at N46, Av. Habib Bourguiba (coordinates: 36.752275483472, 10.224074684865), it's well-known among locals for its high-quality food and cozy ambiance. With extended hours from 8:30 AM to 11:00 PM, Makrem offers a convenient dining experience. The establishment has a friendly owner, providing a welcoming atmosphere for guests.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5189,14 +7436,71 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great dining experience, check out Wida JUCE Ezahra located at P6WG+H77 Wida JUCE Ezahra, Av. de la Republique, Ben Arous. 
-This top-rated destination is perfect for Restaurant enthusiasts and offers a range of Restaurant options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.737164666123, 10.248939136835. For more details, visit their website at nan or call them at 28 440 669.</t>
+          <t>Restaurant named Wida JUCE Ezahra located in ben arous with following details:
+- Work hours: 11:00 AM to 11:00 PM
+- Rating: 4.0
+- Main category is Restaurant.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a top-rated dining spot with a wide selection of Restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ben Arous Medina, a UNESCO World Heritage Site, and visit the Dar Hamouda La Medina Tunis guest house for a traditional Tunisian experience.
+Mid-Morning: Try local cuisine at Fricasse Fardaws, a highly-rated Tunisian restaurant serving traditional dishes and drinks.
+Midday: Take a guided tour of the Mosquee Hammouda-Pacha, a captivating architectural gem in the heart of Tunis.
+Afternoon: Visit the "Only for kings" museum for its highly-rated exhibits and learn about the region's history and culture.
+Evening: Enjoy a relaxing evening with a traditional Arabic meal at mlwy smy@ Mlawi Samia, a well-rated Arabic restaurant.
+Night: Head over to "The King Place" for a fast food meal to end the day on a casual note.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Fast Food Rapido is a Restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on 3 reviews. Fast Food Rapido is open from 10:00-22:00, Monday-Saturday.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5302,12 +7606,68 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a fantastic dining experience, visit Dar Fatma, located on Av. de la Republique, Ben Arous. This top-rated restaurant is perfect for food enthusiasts and offers a menu filled with delectable dishes. With an impressive rating of 5.0, it's a must-visit spot. Dar Fatma is open daily from 08:00-22:00. For more information, call them at 22 736 166.</t>
+          <t>Dar Fatma is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on one review and offers a variety of food options. The restaurant is located at the coordinates (36.739980239295, 10.2527309193).</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (rating of 5.0) with delicious food options and extended operating hours (08:00-22:00) in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore the IRIE Ben Arous, a local administration office, and learn about local governance.
+Mid-Morning: Take a relaxing stroll through Ben Arous, Station de Metro, admiring its bustling atmosphere and convenient transportation options.
+Midday: Indulge in a delicious lunch at Bongout Cafe Resto, renowned for its delectable cuisine and cozy ambiance.
+Afternoon: Discover the rich history and stunning architecture of Mosquee Hammouda-Pacha, a captivating landmark in the heart of Tunis.
+Evening: Savor the authentic flavors of Tunisian cuisine at Fricasse Fardaws, a highly rated restaurant serving traditional dishes and beverages.
+Night: Unwind with a refreshing drink and enjoy the vibrant nightlife at "The King Place," a popular fast food joint offering a wide variety of options.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Bongout Cafe Resto is a highly-rated restaurant in Ben Arous, Tunisia, known for its delectable cuisine and cozy ambiance. Nestled in the heart of the city, it offers a convenient location for locals and visitors alike. Bongout Cafe Resto has garnered 6 positive reviews, making it a must-visit for those seeking a memorable dining experience. Its extensive menu caters to various tastes, and its prime location makes it easily accessible.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5413,12 +7773,68 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out djj lmdyn@ located at djj lmdyn@, Unnamed Road, Ben Arous. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, call them at 97 411 133.</t>
+          <t>djj lmdyn@ is a restaurant located in Ben Arous, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 07:00 to 20:00 and is closed on . The restaurant's phone number is 97 411 133 and its website is nan.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find an acclaimed destination with a 5.0 rating, perfect for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the charming Dar El Medina guesthouse
+Mid-Morning: Trying local cuisine at Restaurant Route 66
+Midday: Visiting the impressive Mosquee Hammouda-Pacha
+Afternoon: Enjoying scenic views at Palmiland, an organic store with a wide variety of products.
+Evening: Relaxing with a massage at BioEclat naturel, a beauty store offering a vast collection of beauty products.
+Night: Participating in a traditional Arabic music concert at **mlwy smy@ Mlawi Samia**, a well-rated Arabic restaurant.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant Route 66 is located in Ben Arous, Tunisia, at the coordinates (36.755546740027, 10.220259740037). It offers a variety of dining options, including pizza, fast food, and delivery. The restaurant has received an average rating of 3.3 stars from 53 reviews on Google Maps.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5524,14 +7940,71 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out mlwy smy@ Mlawi Samia located at mlwy smy@ Mlawi Samia, nhj lQTr, Rue El Guettar, Ben Arous 2013. 
-This top-rated destination is perfect for Restaurant arabe lovers and offers a range of Restaurant arabe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 36.744547777748, 10.219834878116. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%84%D8%A7%D9%88%D9%8A+%D8%B3%D8%A7%D9%85%D9%8A%D8%A9+Mlawi+Samia%E2%80%AD/data=!4m7!3m6!1s0x12fd371c79ca587f:0xe00723f1ba05efcf!8m2!3d36.7438587!4d10.220141!16s%2Fg%2F11l6shhx0v!19sChIJf1jKeRw3_RIRz-8FuvEjB-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 775 777.</t>
+          <t>**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a top-rated Restaurant arabe spot offering a range of dishes within a 5.0-star-rated dining space?</t>
+          <t>Day Plan:
+Morning: **Exploring Cafe'in**
+Start the day with an aromatic coffee at Cafe'in, a highly-rated coffee shop in the heart of Ben Arous. Immerse yourself in the local ambiance while savoring a delicious cup of coffee.
+Mid-Morning: **Visiting Mosquee Hammouda-Pacha**
+Step back in time and explore the architectural marvel of Mosquee Hammouda-Pacha. Admire its captivating beauty and delve into the city's rich cultural heritage.
+Midday: **Trying local cuisine at Restaurant Chez ALLEL**
+Indulge in a culinary adventure at Restaurant Chez ALLEL, renowned for its exceptional dining experience. Delight in traditional Tunisian dishes and savor the authentic flavors of the region.
+Afternoon: **Enjoying scenic views at Palmiland**
+Escape the urban hustle and bustle at Palmiland, an organic store offering a serene ambiance. Take a leisurely stroll through its verdant surroundings and soak in the tranquility.
+Evening: **Shopping at Superette MAYSSA**
+Explore the aisles of Superette MAYSSA, a natural grocery store specializing in organic products. Discover an array of wholesome options and stock up on local delicacies.
+Night: **Relaxing with a traditional meal at **mlwy smy@ Mlawi Samia**
+End the day on a culinary note at **mlwy smy@ Mlawi Samia**, a well-rated Arabic restaurant. Relish a flavorsome meal amidst a charming ambiance, offering a perfect conclusion to your day in Ben Arous.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Restaurant Chez ALLEL is a 5-star rated restaurant located in Ben Arous, Tunisia, offering a dining experience with a focus on quality and customer satisfaction. It is situated at the coordinates (36.761469215509, 10.224546236091), making it easily accessible for visitors. With a focus on providing a memorable dining experience, Chez ALLEL aims to cater to the diverse tastes and preferences of its discerning clientele.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5641,12 +8114,68 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a place to eat, check out Chez le prince located at P7R2+FRJ. This top-rated restaurant is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on none. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61550528174956%26mibextid%3DZbWKwL or call them at 56 918 362.</t>
+          <t>Chez le prince, located in Ben Arous, is a 5-star rated restaurant open 24 hours a day. It offers a dining experience with a focus on providing high-quality cuisine in a cozy and welcoming atmosphere. The restaurant's exact location is at 36.7419111 latitude and 10.2291509 longitude.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find the top-rated Chez le prince restaurant, which offers 24/7 dining with an impressive 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquee Hammouda-Pacha, a captivating architectural gem that blends religious fervor with awe-inspiring beauty.
+Mid-Morning: Immerse yourself in the bustling atmosphere of Ben Arous, Station de Metro, a well-connected hub offering convenient transportation and a glimpse into the city's daily life.
+Midday: Indulge in authentic Tunisian cuisine at Fricasse Fardaws, a highly rated restaurant serving a variety of traditional dishes and drinks.
+Afternoon: Discover the fascinating collection of beauty products at BioEclat naturel, where you can find an array of high-quality items and exceptional customer service.
+Evening: Experience the vibrant nightlife of Ben Arous at "The King Place," a fast food restaurant offering a wide selection of dishes, including burgers, sandwiches, and wraps.
+Night: Relax and rejuvenate at Top cafe, a cafe and grill restaurant that serves delicious dishes and provides a cozy ambiance. Enjoy a delightful dinner and unwind before your next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Dar Fatma is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on one review and offers a variety of food options. The restaurant is located at the coordinates (36.739980239295, 10.2527309193).
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5744,12 +8273,74 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Mlawi Turc located at Mlawi Turc, N46, Av. Habib Bourguiba, Ben Arous. This destination has a rating of 5.0 and is a must-visit spot for Restaurant lovers. To get there, use these GPS coordinates: 36.752275483472, 10.224074684865.</t>
+          <t>Mlawi Turc is a restaurant located in ben arous, Tunisia, precisely at (36.752275483472, 10.224074684865). It has a rating of 5.0 out of 1 review, and its main category is Restaurant.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated (5.0) restaurant named Mlawi Turc, accessible via the GPS coordinates 36.752275483472, 10.224074684865?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic and charming streets of the Medina, a UNESCO World Heritage Site.
+Mid-Morning:
+- Visit the Dar Hamouda La Medina Tunis guest house to experience traditional Tunisian architecture and hospitality.
+Midday:
+- Enjoy lunch at Amigos, a restaurant offering a great dining experience with a 4.7-star rating.
+Afternoon:
+- Relax and rejuvenate with a massage at Le Hamma, a traditional Moroccan spa.
+Evening:
+- Immerse in cultural heritage by visiting Mosquee Hammouda-Pacha, a captivating architectural gem.
+Night:
+- End the day with dinner and live entertainment at Le coin de el medina, a local favorite known for its delicious food and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Amigos, located on Rue Naser bey, Ben Arous, is a restaurant offering a great dining experience with a 4.7-star rating. Open 24 hours a day, Amigos has received positive reviews, highlighting its exceptional offerings. With a main category of Restaurant, Amigos provides a variety of delicious dishes to satisfy any craving.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5851,14 +8442,70 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Restaurant Hammami located at P57M+X5J Restaurant Hammami, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 36.7152421, 10.3610699.</t>
+          <t>Restaurant Hammami is a highly rated (4.0/5 stars) restaurant situated in the heart of Ben Arous,Tunisia.
+This restaurant is accessible at the following coordinates (36.7152421, 10.3610699) and offers a wide array of culinary delights.
+You can visit it between 10 AM to 10 PM every day of the week and savor the delectable dishes they have to offer.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Ben Arous is a must-visit destination for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Tunis with Dar Hamouda La Medina Tunis to experience its rich culture and heritage.
+Mid-Morning: Visit the IRIE Ben Arous, a local administration office, to gain insights into the local governance system.
+Midday: Indulge in a delicious lunch at Fricasse Fardaws, a highly-rated Tunisian restaurant, to savor the authentic flavors of the local cuisine.
+Afternoon: Enjoy scenic views at Mosquee Hammouda-Pacha, an architectural gem that showcases the beauty of traditional Tunisian architecture.
+Evening: Immerse yourself in the vibrant atmosphere of The King Place, a popular fast food restaurant, to experience the local dining scene.
+Night: Unwind and relax at Bir Kassaa, a train station that offers a serene and ambiance to end the day on a peaceful note.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Restaurant mshwy is located on the Km8 of the Mornag road in Ben Arous, Tunisia. It is a restaurant that is open every day from 7:00 AM to 10:00 PM except on Sundays.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5964,14 +8611,76 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Restaurant Princesse located at Rue de Paris, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 48.851944133018, 2.334641298819. For more details, visit their website at or call them at 90 178 732.</t>
+          <t>Restaurant Princesse is a highly-rated (5.0/5) eatery located in Ben Arous, Tunisia. It is open daily from 09:00-22:00 and is conveniently located near Rue de Paris. Despite not having an official website, it has garnered positive reviews on Google Maps for its delicious cuisine and friendly service.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a range of culinary options in Ben Arous?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore Bir Kassaa Railway Station, marveling at its historic architecture.
+**Mid-Morning:**
+* Indulge in traditional Tunisian cuisine at Fricasse Fardaws.
+**Midday:**
+* Visit La Mosquee Hammouda-Pacha, immersing yourself in its religious and architectural grandeur.
+**Afternoon:**
+* Engage in outdoor activities at Palmiland, enjoying its serene atmosphere.
+**Evening:**
+* Pamper yourself with a rejuvenating spa treatment at a local spa.
+**Night:**
+* Experience the lively atmosphere of Le coin de el medina, savoring its delectable fast food options.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant Hammami is a highly rated (4.0/5 stars) restaurant situated in the heart of Ben Arous,Tunisia.
+This restaurant is accessible at the following coordinates (36.7152421, 10.3610699) and offers a wide array of culinary delights.
+You can visit it between 10 AM to 10 PM every day of the week and savor the delectable dishes they have to offer.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6069,12 +8778,65 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Restaurant lina located at Q63F+4FP Restaurant lina, Ben Arous. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7434809, 10.2346424. For more details, visit their website at https://www.google.com/maps/place/Restaurant+lina/data=!4m7!3m6!1s0x12fd3743236d9edf:0x2ee7232fa0148d39!8m2!3d36.752825!4d10.2237016!16s%2Fg%2F11hyt753hl!19sChIJ355tI0M3_RIROY0UoC8j5y4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant lina is a highly rated restaurant in Ben Arous, Tunisia. It has received 2 reviews and has a perfect 5.0 rating. The main category of Restaurant lina is Restaurant. It is located at the coordinates (36.7434809, 10.2346424).</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find Restaurant lina, a highly rated restaurant destination known for its exceptional offerings?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Ben Arous market for unique souvenirs and local products.
+Mid-Morning: Visit the ancient Mosquee Hammouda-Pacha and delve into its rich history and architectural grandeur.
+Midday: Savory the authentic flavors of Tunisian cuisine at Fricasse Fardaws, known for its traditional dishes.
+Afternoon: Relax and rejuvenate with a rejuvenating massage at a local spa.
+Evening: Elevate your cultural experience by joining a music and dance performance at a nearby venue.
+Night: Indulge in the vibrant nightlife of Ben Arous, exploring local bars and nightclubs.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+The Restaurant Princesse is a cozy dining spot located at Rue de Paris, Q63G+97V, Ben Arous. Open from 09:00 to 22:00, it features a single main category of Restaurant, offering delicious cuisine for food enthusiasts. With a rating of 5.0, it's a highly-rated choice among diners. You can contact the restaurant at 90 178 732 for reservations or inquiries.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6184,12 +8946,68 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a Station-service, check out Station-service TotalEnergies BORJ GHORBAL located at Station-service TotalEnergies BORJ GHORBAL, C35, Ben Arous 2013. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7570728, 10.2424877. For more details, visit their website at https://services.totalenergies.tn/ or call them at 79 328 740.</t>
+          <t>Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>If you're looking for a renowned Station-service in Ben Arous, what highly-rated top-rated destination with a 3.1 rating should you visit?</t>
+          <t>Day Plan:
+Morning: Explore Café’in, a cozy coffee shop with high ratings and a welcoming ambiance.
+Mid-Morning: Visit Dar Hamouda La Medina Tunis, a beautifully renovated guest house showcasing traditional architectural style and offering authentic Tunisian experiences.
+Midday: Savor delectable cuisine at Bongout Cafe Resto, renowned for its cozy ambiance and diverse menu catering to various tastes.
+Afternoon: Take a guided tour of the impressive Mosquee Hammouda-Pacha, a historical landmark blending religious significance with architectural beauty.
+Evening: Shop for local specialties and unique souvenirs at the traditional Ben Arous Souk (market), immersing yourself in the vibrant local culture.
+Night: Relax and unwind at the enchanting **Only for kings** museum, featuring captivating exhibitions that transport you through time.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Bongout Cafe Resto is a highly-rated restaurant in Ben Arous, Tunisia, known for its delectable cuisine and cozy ambiance. Nestled in the heart of the city, it offers a convenient location for locals and visitors alike. Bongout Cafe Resto has garnered 6 positive reviews, making it a must-visit for those seeking a memorable dining experience. Its extensive menu caters to various tastes, and its prime location makes it easily accessible.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6291,12 +9109,68 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Ben Arous located at Ben Arous. This top-rated destination is perfect for Station de metro lovers and offers a range of Station de metro to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.transtu.tn/fr/.</t>
+          <t>Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>What is the unique attraction at Ben Arous that makes it a "must-visit spot" for Station de metro enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Tunis, a UNESCO World Heritage Site, and visit the Cathedral of St. Vincent de Paul.
+Mid-Morning: Try local cuisine at Dar Hamouda La Medina Tunis, a charming guest house with a 4.6-star rating, for a taste of authentic Tunisian flavors.
+Midday: Visit the National Museum of Bardo, which houses one of the world's largest collections of Roman mosaics.
+Afternoon: Enjoy the vibrant atmosphere of Ben Arous by exploring its local markets and shopping for souvenirs.
+Evening: Relax with a traditional Hammam experience at a local spa or hotel, to rejuvenate and unwind.
+Night: Experience the lively ambiance of Ben Arous by dining at "The King Place," a fast-food restaurant with a 5.0-star rating for its delectable burgers and sandwiches.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+The ZONE 51 is a popular restaurant located in Ben Arous, Tunisia, featuring a diverse menu of delectable dishes. With an impressive rating of 4.5, it attracts diners from near and far. Geographically, it is situated at the coordinates (36.7419111, 10.2291509), making it easily accessible. The restaurant caters to customers from Monday to Saturday, remaining closed on Sundays, and offers a welcoming ambiance from 9:00 AM to midnight.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6398,12 +9272,65 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a gas station, check out AGIL located at AGIL, C35, Ben Arous 2096. This top-rated destination is perfect for those who need to refuel and offers a range of fuel options to choose from. With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, so you can get gas whenever you need it. To get there, use these GPS coordinates: 36.7392894, 10.2401111.</t>
+          <t>AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated gas station (AGIL) with fuel options and extended hours in the Ben Arous area?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Ben Arous, a UNESCO World Heritage Site.
+Mid-Morning: Visit Dar Hamouda La Medina Tunis, a charming guest house with traditional architecture.
+Midday: Try local cuisine at Restaurant Lina, a highly-rated restaurant offering authentic Tunisian dishes.
+Afternoon: Enjoy scenic views at Palmiland, a health food store with a variety of products.
+Evening: Experience cultural immersion at Mosquee Hammouda-Pacha, a captivating architectural gem.
+Night: Relax with a traditional massage at BioEclat naturel, a beauty salon offering a wide range of natural products.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Restaurant lina is a highly rated restaurant in Ben Arous, Tunisia. It has received 2 reviews and has a perfect 5.0 rating. The main category of Restaurant lina is Restaurant. It is located at the coordinates (36.7434809, 10.2346424).
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6501,12 +9428,65 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated destination, check out Bir Kassaa. This highly-rated establishment is a must-visit spot for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.73894, 10.21122.</t>
+          <t>Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Which highly-rated destination in Bir Kassaa is renowned for its exceptional range of Gare options, making it a must-visit spot for Gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the charming old town, the Medina of Ben Arous, with its unique blend of history and culture.
+Mid-Morning: Visit Mosquee Hammouda-Pacha, a captivating architectural gem, and immerse yourself in the city's rich cultural heritage.
+Midday: Try local cuisine at Restaurant Princesse, highly praised for its delicious food and friendly service.
+Afternoon: Engage in outdoor activities at the beautiful Palmiland, where you can relax and rejuvenate amidst nature's embrace.
+Evening: Shop for souvenirs and local products at the vibrant Ben Arous Market, bustling with energy and offering a glimpse into the city's daily life.
+Night: Immerse yourself in the lively atmosphere of Top Cafe, a cafe and grill restaurant, enjoy the local cuisine, and connect with the friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Restaurant Princesse is a highly-rated (5.0/5) eatery located in Ben Arous, Tunisia. It is open daily from 09:00-22:00 and is conveniently located near Rue de Paris. Despite not having an official website, it has garnered positive reviews on Google Maps for its delicious cuisine and friendly service.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6612,14 +9592,70 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out OLA located at Q7RF+HJP OLA, Ben Arous. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.google.com/maps/place/OLA/data=!4m7!3m6!1s0x12fd4a6c4cab3b95:0x6c6707e886923ae5!8m2!3d36.7914689!4d10.2740662!16s%2Fg%2F11ddx1sr7g!19sChIJlTurTGxK_RIR5TqShugHZ2w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 449 290.</t>
+          <t>OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly-rated station-service establishment called OLA that is open 24/7, making it a convenient spot for refuelling or other station-service needs?</t>
+          <t>Day Plan:
+Morning: Explore the historic city center of Ben Arous, admiring the charming architecture and visiting the "Mosquee Hammouda-Pacha."
+Mid-Morning: Indulge in traditional Tunisian cuisine at "Restaurant Hammami," known for its authentic flavors and warm ambiance.
+Midday: Immerse yourself in the local culture at "For Family Natural Concept," a bustling delicatessen offering a variety of natural and organic products.
+Afternoon: Escape to the scenic "Palmiland" organic store, offering a wide selection of healthy and wholesome products, perfect for enjoying a picnic amidst nature.
+Evening: Experience the vibrant atmosphere at "Le coin de el medina," a fast-food restaurant serving delectable street food while soaking in the local energy.
+Night: Relax and rejuvenate at "Dar Hamouda La Medina Tunis," a charming guest house with authentic Tunisian architecture and inviting amenities.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Restaurant Hammami is a highly rated (4.0/5 stars) restaurant situated in the heart of Ben Arous,Tunisia.
+This restaurant is accessible at the following coordinates (36.7152421, 10.3610699) and offers a wide array of culinary delights.
+You can visit it between 10 AM to 10 PM every day of the week and savor the delectable dishes they have to offer.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.
+Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6717,12 +9753,65 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you are in ben arous and looking for a Station-service, AGIL located at Q67F+RMX AGIL, Ben Arous is a perfect choice. This top-rated spot offers a range of services for your automotive needs. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7392894, 10.2401111. For more details, visit their website at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12fd367a30975911:0x19ff49a577bc318e!8m2!3d36.7646003!4d10.2242224!16s%2Fg%2F11gbxb3p46!19sChIJEVmXMHo2_RIRjjG8d6VJ_xk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>If you're seeking a highly-rated Station-service in Ben Arous with comprehensive automotive care services, where can you find AGIL?</t>
+          <t>Day Plan:
+Morning: Start the day with a visit to the historic Mosquee Hammouda-Pacha in the heart of Tunis, immersing yourself in its architectural grandeur.
+Mid-Morning: As mid-morning approaches, head to the IRIE Ben Arous, a local administration office, to gain insights into the city's governance.
+Midday: Explore the local culture and traditions by trying authentic Tunisian cuisine at Fricasse Fardaws, a highly-rated restaurant known for its traditional dishes.
+Afternoon: Take a leisurely stroll through the Municipalite Ben Arous, the town hall, to admire its elegant architecture and learn about the city's history. Afterward, visit the nearby **mlwy smy@ Mlawi Samia**, an Arabic restaurant, to savor the flavors of local cuisine.
+Evening: As the sun sets, escape the bustling city to relax and unwind at Palmiland, a health food store that offers a serene ambiance.
+Night: Conclude the day on a cultural note by attending an event at **Only for kings**, a museum dedicated to showcasing historical treasures.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Mlawi Turc is a restaurant located in ben arous, Tunisia, precisely at (36.752275483472, 10.224074684865). It has a rating of 5.0 out of 1 review, and its main category is Restaurant.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6820,12 +9909,68 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Benarous2 located at Av. Habib Bourguiba, Ben Arous. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 3.2, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.752275483472, 10.224074684865. For more details, visit their website at or call them at .</t>
+          <t>Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a top-rated destination with a range of Arret de bus options, making it a haven for Arret de bus enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the charming medina of Tunis at Dar Hamouda La Medina Tunis
+Mid-Morning: Visit the Mosquee Hammouda-Pacha for a glimpse of Tunisia's religious heritage
+Midday: Enjoy a delicious lunch at Restaurant Makrem, known for its local cuisine and cozy ambiance
+Afternoon: Discover the natural beauty of BioEclat naturel and indulge in a relaxing spa treatment at the hotel where Dar Hamouda La Medina Tunis is located
+Evening: Head to "Only for kings" museum to learn about Ben Arous' cultural history and enjoy a shopping session at the nearby Ben Arous Mall
+Night: Experience the vibrant nightlife at Top cafe, known for its live music and delicious food</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+**Restaurant Makrem**: A reputable restaurant in Ben Arous, serving delicious local cuisine with a 5-star rating based on 3 positive reviews. Located at N46, Av. Habib Bourguiba (coordinates: 36.752275483472, 10.224074684865), it's well-known among locals for its high-quality food and cozy ambiance. With extended hours from 8:30 AM to 11:00 PM, Makrem offers a convenient dining experience. The establishment has a friendly owner, providing a welcoming atmosphere for guests.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6923,12 +10068,65 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Gare Nouvelle Medina located at Gare Nouvelle Medina, N1. This top-rated destination is perfect for Gare routiere lovers. With a rating of 2.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.73887, 10.23777. For more details, visit their website at https://www.google.com/maps/place/Gare+Nouvelle+Medina/data=!4m7!3m6!1s0x12fd36185fdb7bd9:0xfb29dbd60f0b79d2!8m2!3d36.748557!4d10.2515129!16s%2Fg%2F11b7q5q3qg!19sChIJ2XvbXxg2_RIR0nkLD9bbKfs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Gare Nouvelle Medina is a bustling bus station located in the Ben Arous region. Situated at the coordinates (36.73887, 10.23777), it offers convenient transportation services to various destinations. With a rating of 2.0 based on 3 reviews, the station provides a vital connection point for locals and travelers.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination perfect for Gare routiere enthusiasts in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore the historic streets of the Medina of Ben Arous, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Mosquee Hammouda-Pacha, a captivating architectural gem located in the heart of Tunis.
+Midday: Try local cuisine at Bongout Cafe Resto, known for its delectable cuisine and cozy ambiance.
+Afternoon: Engage in outdoor activities like hiking or cycling at the Parc de la Soukra.
+Evening: Take a guided tour of the "Only for kings" museum, a highly-rated destination for those interested in history and culture.
+Night: Experience cultural immersion at a traditional Tunisian restaurant like **mlwy smy@ Mlawi Samia** for a taste of authentic Arabic cuisine.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Bongout Cafe Resto is a highly-rated restaurant in Ben Arous, Tunisia, known for its delectable cuisine and cozy ambiance. Nestled in the heart of the city, it offers a convenient location for locals and visitors alike. Bongout Cafe Resto has garnered 6 positive reviews, making it a must-visit for those seeking a memorable dining experience. Its extensive menu caters to various tastes, and its prime location makes it easily accessible.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7022,12 +10220,68 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for somewhere to get petrol, check out wkl@ lfHS lfnWy llsyWrt bbn `rws located at Q65J+J28 wkl@ lfHS lfnWy llsyWrt bbn `rws, Rue Des Metaux, Ben Arous. This top-rated destination is perfect for Station-service lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.759420770151, 10.230314131191.</t>
+          <t>This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.0) petrol station in Ben Arous that's specifically designed for Station-service enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Tunis, starting with the captivating Mosquee Hammouda-Pacha, where you can immerse yourself in the city's rich cultural heritage.
+Mid-Morning: Embark on a guided tour of Dar Hamouda La Medina Tunis, a charming guest house with 11 carefully renovated rooms, providing a glimpse into the authentic atmosphere of Tunis.
+Midday: Indulge in a culinary delight at "djj lmdyn@," a highly-rated restaurant offering a diverse menu of local dishes, ensuring a delectable introduction to Tunisian cuisine.
+Afternoon: Discover Ben Arous's modern side by exploring "Only for kings," a museum showcasing captivating exhibitions, where you can delve into the city's artistic and cultural expressions.
+Evening: Enjoy a relaxing break at BioEclat naturel, a haven for beauty enthusiasts, where you can rejuvenate with a range of natural and organic products.
+Night: Dine under the stars at Top cafe, a cafe, and grill restaurant known for its delicious dishes and cozy ambiance, providing a perfect end to your day in Ben Arous.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+djj lmdyn@ is a restaurant located in Ben Arous, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 07:00 to 20:00 and is closed on . The restaurant's phone number is 97 411 133 and its website is nan.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7125,14 +10379,68 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a Station-service, check out Cle Pro &amp; Alarmes located at Rue de Bizerte, Ben Arous. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on dimanche. To get there, use the link https://www.google.com/maps/place/Cl%C3%A9+Pro+%26+Alarmes/data=!4m7!3m6!1s0x12fd379b48dc9199:0xda7aa853b15ddccb!8m2!3d36.7605771!4d10.2268561!16s%2Fg%2F11j35b3gt5!19sChIJmZHcSJs3_RIRy9xdsVOoeto?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 187 993.</t>
+          <t>**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Station-service offering a wide selection in Ben Arous?</t>
+          <t>Day Plan:
+Morning: Explore the charming Dar Hamouda La Medina Tunis, a historic guest house that offers a glimpse into the rich history and culture of Tunis.
+Mid-Morning: Enjoy a traditional Arabic breakfast at **mlwy smy@ Mlawi Samia**, a highly-rated restaurant known for its diverse menu of Arabic cuisine.
+Midday: Immerse yourself in the local culture by visiting the IRIE Ben Arous, a local administration office where you can engage with the community and learn about the city's governance.
+Afternoon: Head to Palmiland, an organic store that offers a wide variety of products. Take advantage of their 24-hour availability and browse their local specialties.
+Evening: Indulge in a delectable dinner at Fricasse Fardaws, a Tunisian restaurant renowned for its authentic dishes. Savor the flavors of traditional Tunisian cuisine.
+Night: Experience the vibrant nightlife of Ben Arous by visiting Top cafe, a cafe and grill restaurant that features live music and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Restaurant Route 66 is located in Ben Arous, Tunisia, at the coordinates (36.755546740027, 10.220259740037). It offers a variety of dining options, including pizza, fast food, and delivery. The restaurant has received an average rating of 3.3 stars from 53 reviews on Google Maps.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.
+Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7230,14 +10538,68 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Bir Kassaa located at Bir Kassaa, Ben Arous. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.73894, 10.21122. For more details, visit their website at  or call them at .</t>
+          <t>Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where in Ben Arous can you find a highly rated destination known for its Gare offerings?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of the Medina of Tunis.
+Mid-Morning: Visit the historic Mosquee Hammouda Pacha for a glimpse into the city's rich heritage.
+Midday: Try local cuisine at the nearby Chez le prince restaurant, known for its cozy ambiance and high-quality cuisine.
+Afternoon: Relax with a rejuvenating spa treatment at a nearby spa or hotel, such as the BioEclat naturel or Palmiland.
+Evening: Enjoy the vibrant atmosphere of the IRIE Ben Arous, a local administration office that transforms into a popular destination in the evenings.
+Night: Experience the cultural immersion of the Arabic restaurant mlwy smy@ Mlawi Samia, savoring traditional Arabic cuisine and soaking in the local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.
+Chez le prince, located in Ben Arous, is a 5-star rated restaurant open 24 hours a day. It offers a dining experience with a focus on providing high-quality cuisine in a cozy and welcoming atmosphere. The restaurant's exact location is at 36.7419111 latitude and 10.2291509 longitude.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7335,14 +10697,75 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Gare Nouvelle Medina located at Gare Nouvelle Medina, N1, Ben Arous. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 2.0, it's a must-visit spot. GPS coordinates: 36.73887, 10.23777</t>
+          <t>Gare Nouvelle Medina is a bus station located in Ben Arous, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (36.73887, 10.23777), making it easily accessible to travelers. The station operates with a team of friendly staff dedicated to providing a comfortable and efficient travel experience.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>What is the top-rated destination for Gare routiere enthusiasts in Ben Arous, with GPS coordinates of 36.73887, 10.23777?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Medina of Tunis, a UNESCO World Heritage Site.
+**Mid-Morning:**
+- Visit the Dar Hamouda La Medina Tunis for a glimpse into traditional Tunisian architecture and culture.
+- Indulge in local cuisine at Mlewi Khmissa, a highly-rated restaurant offering authentic Tunisian flavors.
+**Midday:**
+- Take a scenic walk or cycle through the Ben Arous Archaeological Museum, where you can admire ancient artifacts and learn about the region's rich history.
+**Afternoon:**
+- Explore the vibrant Municipalite Ben Arous, where you can witness the bustling atmosphere and engage with the locals.
+- Relax and enjoy the serene beauty of Mosquee Hammouda-Pacha, an iconic architectural landmark in the city.
+**Evening:**
+- Try the local specialties at **mlwy smy@ Mlawi Samia**, an Arabic restaurant serving a diverse menu.
+- Enjoy the energetic ambiance at Le coin de el medina, a fast food restaurant with high ratings and a welcoming atmosphere.
+**Night:**
+- Experience cultural immersion through a guided tour of the **Only for kings** museum, where you can discover Tunisia's unique history and craftsmanship.
+- Unwind and relax at the Palmiland organic store, offering a wide selection of products and a relaxing shopping experience.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.
+Mlewi Khmissa is a restaurant located in Ben Arous, Tunisia, offering a dining experience with a 4.3-star rating based on 3 reviews. It is open from 10:00 to 17:00 during weekdays, but closed on Sundays. The exact location is at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous, and the coordinates are (36.7564777, 10.2280057). Unfortunately, there is no further information available regarding its website, featured image, and review keywords.
+Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7440,12 +10863,68 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in Ben Arous and looking for a gare, check out Bir Kassaa located at Bir Kassaa, Ben Arous. This top-rated destination is perfect for gare lovers and has a rating of 3.6. For more details, visit their website at https://www.google.com/maps/place/Bir+Kassaa/data=!4m7!3m6!1s0x12fd36451dae2353:0xffca475df39a585b!8m2!3d36.7410163!4d10.2282554!16s%2Fg%2F1xtdzs_l!19sChIJUyOuHUU2_RIRW1ia811Hyv8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated gare in the Ben Arous area that's perfect for gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquee Hammouda-Pacha, a captivating architectural gem in the heart of Tunis.
+Mid-Morning: Visit the Ben Arous Municipalite, a town hall offering administrative, social, and economic development services.
+Midday: Try local cuisine at Restaurant Chez ALLEL, a 5-star rated restaurant known for its focus on quality and customer satisfaction.
+Afternoon: Shop for beauty products at BioEclat naturel, a highly rated store offering a vast collection with excellent customer service.
+Evening: Enjoy a delightful dinner at Top Cafe, a cafe and grill restaurant serving a variety of dishes in a cozy atmosphere.
+Night: Stay at Dar El Medina, a charming guesthouse with cozy rooms and suites, offering panoramic city views from its rooftop terrace.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.
+Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.
+Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.
+Restaurant Chez ALLEL is a 5-star rated restaurant located in Ben Arous, Tunisia, offering a dining experience with a focus on quality and customer satisfaction. It is situated at the coordinates (36.761469215509, 10.224546236091), making it easily accessible for visitors. With a focus on providing a memorable dining experience, Chez ALLEL aims to cater to the diverse tastes and preferences of its discerning clientele.
+**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.
+The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.
+The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.
+Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.
+"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.
+The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.
+For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.
+Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.
+Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.
+Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.
+Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.
+Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.
+**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.
+AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.
+Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)
+Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
